--- a/BBDD/CSV/deteccion_fortigate.xlsx
+++ b/BBDD/CSV/deteccion_fortigate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC104880F99D7D5C5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF268ADA-D2EC-4ED4-BF6F-F47D88992F8C}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104880F99D7D5C5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{070A8424-9AAC-4E00-9D70-7ABF52460F2A}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="470" windowWidth="25910" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="2110" windowWidth="25910" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="160">
   <si>
     <t>FICHERO PCAP</t>
   </si>
@@ -490,20 +490,6 @@
   </si>
   <si>
     <r>
-      <t>Ataques Colaterales:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> FortiGate detecta el establecimiento del canal C&amp;C, pero no detecta la programación de la extracción como tal. Por ello, sólo puede considerarse que FortiGate detecta adecuadamente el ataque colateral pero no el principal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Instancias Ataque</t>
     </r>
     <r>
@@ -668,6 +654,95 @@
         <family val="2"/>
       </rPr>
       <t>FortiGate detecta el uso de comandos de forma remota. Sin embargo, este es el medio previo para poder llevar a cabo el ataque principal, el cual no es detectado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Flujos Detectados FG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> la diferencia de flujos se debe a la presencia de reseteos de conexión. No hay pérdida de información</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ataques Colaterales:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FortiGate detecta el establecimiento del canal C&amp;C, pero no detecta la programación de la extracción como tal. Por ello, sólo puede considerarse que FortiGate detecta adecuadamente el ataque colateral pero no el principal. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Flujos Detectados FG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: dos flujos con protocolo BROWSER (Windows) no son detectados. Estos flujos son irrelevantes para el ataques</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flujos Detectados FG: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hay un flujo que FortiGate no detecta. No hay causa aparente </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Flujos Detectados FG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> la diferencia de flujos se debe a la presencia de retransmisiones. No afecta a los resultados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Flujos Detectados FG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> la diferencia entre flujos se debe a la presencia de un flujo htext y un flujo dirigido hacia el puerto 67 (bootps)</t>
     </r>
   </si>
 </sst>
@@ -1126,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1311,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="299.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -1247,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1273,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1374,7 +1449,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="194.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
@@ -1385,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="194" thickBot="1" x14ac:dyDescent="0.4">
@@ -1399,7 +1474,7 @@
         <v>158</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1427,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1458,7 +1533,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
@@ -1469,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="317" thickBot="1" x14ac:dyDescent="0.4">
@@ -1483,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1500,7 +1575,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="264.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -1511,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="282" thickBot="1" x14ac:dyDescent="0.4">
@@ -1525,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="264.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1539,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1553,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="352" thickBot="1" x14ac:dyDescent="0.4">
@@ -1567,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1581,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2225,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2701,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3037,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
